--- a/java22 database patches/Java22 PNhung Database Design.xlsx
+++ b/java22 database patches/Java22 PNhung Database Design.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qphan\Desktop\bkit\course - plan and doc\Phần 3 - Database(MySQL)\16. RBDMS\DEMO\RDBMS demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\Java22\3.DATABASE\java22 database patches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49F54C-84C6-4733-8EE9-A1497863A84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -18,28 +17,17 @@
     <sheet name="B3. Mô hình vật lý" sheetId="4" r:id="rId3"/>
     <sheet name="Bn. Tạo dữ liệu kiểm thử(mẫu)" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={0A2C71E2-FB65-453E-A0CE-DA68AC748C4F}</author>
     <author>tc={DB6D448B-03BA-4B3A-BBF2-3890C3BF9252}</author>
@@ -50,60 +38,123 @@
     <author>tc={D83912D2-3198-4AAD-A2E8-506838B31F39}</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{0A2C71E2-FB65-453E-A0CE-DA68AC748C4F}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Không cần thuộc phòng ban, làm được mọi chức năng</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{DB6D448B-03BA-4B3A-BBF2-3890C3BF9252}">
+    <comment ref="B7" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Có thể khác nhau khi khắc kích cỡ, màu sắc</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="2" shapeId="0" xr:uid="{A45CD628-6220-4A84-BFE6-08B4C0A79347}">
+    <comment ref="H7" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     NhanVien, Quan Ly</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="3" shapeId="0" xr:uid="{6D1B4555-C3EF-4466-A326-A7140030D108}">
+    <comment ref="B8" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Các sản phầm mua vào đều chung giá, k quan tâm kích cỡ, màu sắc, chất liệu</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{62E11726-5009-4EEC-BAD0-5B3C7C1D5FAD}">
+    <comment ref="E8" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     MatHang - SoLuong</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="5" shapeId="0" xr:uid="{26B8D9B6-EB95-478B-9008-2D83A6E64F56}">
+    <comment ref="B11" authorId="5" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Tùy thuộc vào kích cỡ, màu sắc, chất liệu</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="6" shapeId="0" xr:uid="{D83912D2-3198-4AAD-A2E8-506838B31F39}">
+    <comment ref="E15" authorId="6" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nhân Viên Của Cửa Hàng, mỗi nhân viên phụ trách 1/N trạng thái khác nhau</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -111,71 +162,195 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={DE58EBA4-8560-490B-BAD4-3856E742A2AE}</author>
-    <author>tc={3771F8C7-5E16-455B-902B-DE716AF4612B}</author>
-    <author>tc={2DF7D111-0DDE-4E17-8E1D-16765C0D4B63}</author>
-    <author>tc={4C122E08-9A24-4E6F-AF60-D8CC5F67F5C9}</author>
-    <author>tc={F628BF43-B4A1-4CAB-9E74-2093B57EE48F}</author>
-    <author>tc={D99EB7D2-A530-4F60-83C2-B2B7CB02A0F3}</author>
-    <author>tc={6CA12232-A882-491A-914E-F23513B95950}</author>
+    <author>ASUS</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{DE58EBA4-8560-490B-BAD4-3856E742A2AE}">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Không cần thuộc phòng ban, làm được mọi chức năng</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+1 MH có giá bán phụ thuộc vào kích cỡ chất liệu màu sắc</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{3771F8C7-5E16-455B-902B-DE716AF4612B}">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Có thể khác nhau khi khắc kích cỡ, màu sắc</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+địa chỉ mà người nhận 1 ship đến có thể là địa chỉ mặc định theo tài khoản hoạc 1 địa chỉ khác</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="2" shapeId="0" xr:uid="{2DF7D111-0DDE-4E17-8E1D-16765C0D4B63}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Các sản phầm mua vào đều chung giá, k quan tâm kích cỡ, màu sắc, chất liệu</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+số lượng bán hàng của mỗi mặt hàng trong 1 đơn hàng</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="3" shapeId="0" xr:uid="{4C122E08-9A24-4E6F-AF60-D8CC5F67F5C9}">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Tùy thuộc vào kích cỡ, màu sắc, chất liệu</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+1 MH có 1 giá mua</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="4" shapeId="0" xr:uid="{F628BF43-B4A1-4CAB-9E74-2093B57EE48F}">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Nhân Viên Của Cửa Hàng, mỗi nhân viên phụ trách 1/N trạng thái khác nhau</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+địa chỉ mặc định cho mỗi KH
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="5" shapeId="0" xr:uid="{D99EB7D2-A530-4F60-83C2-B2B7CB02A0F3}">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    NhanVien, Quan Ly</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+tính từ ChiTietDonHang</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="6" shapeId="0" xr:uid="{6CA12232-A882-491A-914E-F23513B95950}">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    MatHang - SoLuong</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+số lượng tồn kho
+số lượng đã bán ở chiTietDonHang
+số lượng nhập vào ở bảng chiTietNhapHang
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -183,17 +358,26 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={4B47AF2D-C770-4A5E-8158-147A119469B1}</author>
   </authors>
   <commentList>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{4B47AF2D-C770-4A5E-8158-147A119469B1}">
+    <comment ref="I22" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Có rất nhiều màu sắc color, rgb, hexa -&gt; sử dụng varchar để lưu chứ k tạo 1 bảng riêng</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -201,7 +385,7 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={3503BA87-F97B-4BA2-B285-74026B5E7BB4}</author>
     <author>tc={F417F53F-78F4-4FB2-9932-6B06E3741ADD}</author>
@@ -215,47 +399,92 @@
     <author>tc={686C344B-1B7B-4A75-97B6-A6A7B29739FE}</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3503BA87-F97B-4BA2-B285-74026B5E7BB4}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Các sản phầm mua vào đều chung giá, k quan tâm kích cỡ, màu sắc, chất liệu</t>
+        </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="1" shapeId="0" xr:uid="{F417F53F-78F4-4FB2-9932-6B06E3741ADD}">
+    <comment ref="K5" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Chờ xác nhận, Đang đóng gói, Đóng gói hoàn thành chờ vận chuyển, Đang vận chuyển, Giao hàng thành công, Giao hàng thất bại, Hủy đơn hàng</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="2" shapeId="0" xr:uid="{73A9844D-439C-4A34-96F0-71631781CCF8}">
+    <comment ref="H15" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Tiền mặt, thẻ tín dụng, thẻ ghi nợ, ví điện tử</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="3" shapeId="0" xr:uid="{89D0F75C-16FA-43DB-9BE0-099B1CAFC699}">
+    <comment ref="B56" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Không cần thuộc phòng ban, làm được mọi chức năng</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="4" shapeId="0" xr:uid="{81011C5D-5AE3-44B3-97CD-014DF419A278}">
+    <comment ref="I57" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     NhanVien, Quan Ly</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="5" shapeId="0" xr:uid="{97B38917-3C27-42E5-A452-A7A63273C962}">
+    <comment ref="C71" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D71" authorId="5" shapeId="0" xr:uid="{89BC852F-A852-42D9-8A07-73738E7D49A8}">
+    <comment ref="D71" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,24 +535,42 @@
         </r>
       </text>
     </comment>
-    <comment ref="E71" authorId="6" shapeId="0" xr:uid="{D45AF084-4675-422C-9958-D87148145BEA}">
+    <comment ref="E71" authorId="6" shapeId="0">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Số lượng bán
 </t>
+        </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="7" shapeId="0" xr:uid="{BFF9823B-C3B1-4818-99DA-2E82CF873073}">
+    <comment ref="F71" authorId="7" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Doanh thu cho mặt hàng theo giai đoạn</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="5" shapeId="0" xr:uid="{3308BC73-AD5E-408B-A255-F1435759065A}">
+    <comment ref="B76" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,20 +595,38 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="8" shapeId="0" xr:uid="{AE19BEC5-BB6C-4F20-A9C5-16CD0C497F85}">
+    <comment ref="E84" authorId="8" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Có rất nhiều màu sắc color, rgb, hexa -&gt; sử dụng varchar để lưu chứ k tạo 1 bảng riêng</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G84" authorId="9" shapeId="0" xr:uid="{686C344B-1B7B-4A75-97B6-A6A7B29739FE}">
+    <comment ref="G84" authorId="9" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Số lượng hàng còn lại ở thời điểm hiện tại</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -369,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="331">
   <si>
     <r>
       <t xml:space="preserve">Xác định các </t>
@@ -379,7 +644,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,7 +654,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1245,25 +1510,172 @@
     <t>-- 4. Đơn hàng từ 13  --&gt; Giao hàng thất bại (trạng thái 1,2,3,4,6)</t>
   </si>
   <si>
-    <t>Mô hình logic trên cơ sở đối tượng mẫu ==&gt; https://app.diagrams.net/#G1EC3kWNgwWJ-jrYKf-W24OTGjAV-pxvRf#%7B%22pageId%22%3A%22AbEYu_0bn73_d0lKOqK0%22%7D</t>
+    <t>MatHang</t>
+  </si>
+  <si>
+    <t>LoaiHang</t>
+  </si>
+  <si>
+    <t>DonHang</t>
+  </si>
+  <si>
+    <t>ChiTietMatHang</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>KhachHang</t>
+  </si>
+  <si>
+    <t>ChucVu</t>
+  </si>
+  <si>
+    <t>MaMH</t>
+  </si>
+  <si>
+    <t>MaLH</t>
+  </si>
+  <si>
+    <t>MaDH</t>
+  </si>
+  <si>
+    <t>MaSanPham</t>
+  </si>
+  <si>
+    <t>MaNV</t>
+  </si>
+  <si>
+    <t>MaKH</t>
+  </si>
+  <si>
+    <t>MaCV</t>
+  </si>
+  <si>
+    <t>TenMH</t>
+  </si>
+  <si>
+    <t>TenLH</t>
+  </si>
+  <si>
+    <t>TenNguoiDatHang</t>
+  </si>
+  <si>
+    <t>SoLuong</t>
+  </si>
+  <si>
+    <t>TenNV</t>
+  </si>
+  <si>
+    <t>HoTen</t>
+  </si>
+  <si>
+    <t>MoTa</t>
+  </si>
+  <si>
+    <t>GiaBan</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GiaMua</t>
+  </si>
+  <si>
+    <t>SoDienThoai</t>
+  </si>
+  <si>
+    <t>LoaiSanPham</t>
+  </si>
+  <si>
+    <t>LoaiHinhThanhToan</t>
+  </si>
+  <si>
+    <t>MaTK</t>
+  </si>
+  <si>
+    <t>ChatLieu</t>
+  </si>
+  <si>
+    <t>MatKhau</t>
+  </si>
+  <si>
+    <t>MauSac</t>
+  </si>
+  <si>
+    <t>NgayDat</t>
+  </si>
+  <si>
+    <t>KichThuoc</t>
+  </si>
+  <si>
+    <t>TongSLHang</t>
+  </si>
+  <si>
+    <t>TongTien</t>
+  </si>
+  <si>
+    <t>PhiVanChuyen</t>
+  </si>
+  <si>
+    <t>TinhTrang</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>NgayNhanHang</t>
+  </si>
+  <si>
+    <t>NguoiNhanHang</t>
+  </si>
+  <si>
+    <t>ChiTietDonHang</t>
+  </si>
+  <si>
+    <t>MaCL</t>
+  </si>
+  <si>
+    <t>TenCL</t>
+  </si>
+  <si>
+    <t>KíchThuoc</t>
+  </si>
+  <si>
+    <t>MaKT</t>
+  </si>
+  <si>
+    <t>TenKT</t>
+  </si>
+  <si>
+    <t>MaLHTT</t>
+  </si>
+  <si>
+    <t>MaTT</t>
+  </si>
+  <si>
+    <t>Mô hình logic trên cơ sở đối tượng mẫu ==&gt; https://drive.google.com/file/d/1Tbsp2PDyZXpZ5vDz91bu0ezb1fdNdggn/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1271,7 +1683,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1279,7 +1691,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1287,14 +1699,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1302,7 +1714,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1310,14 +1722,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1325,13 +1737,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1339,21 +1751,21 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF92D050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1361,7 +1773,7 @@
       <strike/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1369,7 +1781,7 @@
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1390,24 +1802,54 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1438,8 +1880,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1484,11 +1938,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1502,9 +1969,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,9 +1980,6 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1632,6 +2093,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2012,42 +2525,920 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D22"/>
+    <sheetView zoomScale="50" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6875" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="29" width="14.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="29" width="14.6875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="50"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.0625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="14.6875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+    </row>
+    <row r="5" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+    </row>
+    <row r="6" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+    </row>
+    <row r="8" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+    </row>
+    <row r="11" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+    </row>
+    <row r="12" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="50"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="16" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+    </row>
+    <row r="17" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+    </row>
+    <row r="19" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+    </row>
+    <row r="20" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="6:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P64"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.3125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.3125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.6875" style="1" customWidth="1"/>
+    <col min="17" max="29" width="14.6875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2059,292 +3450,29 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02AFA64-4F84-47ED-AB68-8CF3C6F7C8A6}">
-  <dimension ref="B1:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="29" width="14.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2353,11 +3481,15 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="18"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2366,365 +3498,15 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="7:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="7:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="7:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258E744B-65C2-4DE9-994B-E5E54772E544}">
-  <dimension ref="B1:P64"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="28.7109375" style="1" customWidth="1"/>
-    <col min="17" max="29" width="14.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="20"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2736,12 +3518,12 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2750,15 +3532,15 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="30"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2768,14 +3550,14 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="20"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
@@ -2792,7 +3574,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -2800,7 +3582,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2809,14 +3591,14 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="29"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2825,7 +3607,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2842,9 +3624,9 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="29"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2853,16 +3635,16 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="29"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="29"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2876,7 +3658,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2893,7 +3675,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2910,195 +3692,195 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+    <row r="19" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="27"/>
-    </row>
-    <row r="21" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-    </row>
-    <row r="22" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="2:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="2:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="2:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+    <row r="30" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+    <row r="39" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+    <row r="40" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+    <row r="43" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+    <row r="44" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,7 +3888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
@@ -3114,66 +3896,66 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
+    <row r="49" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="26" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="26" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B29:E29"/>
@@ -3190,41 +3972,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8B0AB7-EB07-4BA0-B0D1-595B07C9234C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A85" zoomScale="45" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.6875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="33"/>
-    <col min="2" max="2" width="30.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="29" style="33" customWidth="1"/>
-    <col min="9" max="9" width="45.140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="29" style="33" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="33"/>
-    <col min="13" max="13" width="28.140625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="33" customWidth="1"/>
-    <col min="15" max="16384" width="16.7109375" style="33"/>
+    <col min="1" max="1" width="16.6875" style="31"/>
+    <col min="2" max="2" width="30.3125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="27.3125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="32.5625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="29" style="31" customWidth="1"/>
+    <col min="9" max="9" width="45.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="25.3125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="29" style="31" customWidth="1"/>
+    <col min="12" max="12" width="16.6875" style="31"/>
+    <col min="13" max="13" width="28.125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="23.3125" style="31" customWidth="1"/>
+    <col min="15" max="16384" width="16.6875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+    <row r="1" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3236,308 +4018,308 @@
       <c r="E4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+    <row r="5" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>100</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>69</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>86</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>108</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
+    <row r="6" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>60</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="32">
         <v>1</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <v>1</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="32">
         <v>1</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="32">
         <v>1</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+    <row r="7" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32">
         <v>3</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>80</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <v>1</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>2</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="32">
         <v>2</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="32">
         <v>2</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
+    <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32">
         <v>4</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>40</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="32">
         <v>2</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="32">
         <v>3</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="32">
         <v>3</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="32">
         <v>3</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="32" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+    <row r="9" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32">
         <v>5</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>60</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <v>2</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <v>4</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="32">
         <v>4</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="32">
         <v>4</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+    <row r="10" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="32">
         <v>6</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>180</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="32">
         <v>3</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <v>5</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="32">
         <v>5</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="32" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
+    <row r="11" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="32">
         <v>7</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>80</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="32">
         <v>6</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="32" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
+    <row r="12" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="32">
         <v>8</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>126</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <v>3</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="32">
         <v>7</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="32" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+    <row r="13" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="32">
         <v>9</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>142</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
+    <row r="14" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="32">
         <v>10</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>195</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="32">
         <v>3</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
+    <row r="15" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="32">
         <v>11</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>180</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <v>4</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="13" t="s">
         <v>77</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="13" t="s">
         <v>96</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -3550,289 +4332,289 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+    <row r="16" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="32">
         <v>12</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>88</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="32">
         <v>1</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="32">
         <v>1</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="32">
         <v>1</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="32">
         <v>0</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
+    <row r="17" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="32">
         <v>13</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <v>200</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="32">
         <v>4</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="32">
         <v>2</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="32">
         <v>2</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="32">
         <v>0</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="M17" s="32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
+    <row r="18" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="32">
         <v>14</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>120</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="32">
         <v>5</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="32">
         <v>3</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="32">
         <v>3</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="32">
         <v>0</v>
       </c>
-      <c r="M18" s="34" t="s">
+      <c r="M18" s="32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
+    <row r="19" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="32">
         <v>15</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>160</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="32">
         <v>5</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="32">
         <v>4</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="32">
         <v>4</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="32">
         <v>0</v>
       </c>
-      <c r="M19" s="34" t="s">
+      <c r="M19" s="32" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
+    <row r="20" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="32">
         <v>16</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>140</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="32">
         <v>6</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="32">
         <v>5</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="32">
         <v>0</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="M20" s="32" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+    <row r="21" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="32">
         <v>17</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <v>170</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="32">
         <v>6</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="32">
         <v>6</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="32">
         <v>1</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
+    <row r="22" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="32">
         <v>18</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <v>120</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="32">
         <v>5</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <v>7</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="32">
         <v>1</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="M22" s="32" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
+    <row r="23" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="32">
         <v>19</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="32">
         <v>175</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="32">
         <v>7</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="32">
         <v>8</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="32">
         <v>1</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M23" s="32" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34">
+    <row r="24" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="32">
         <v>20</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>186</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="32">
         <v>7</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="32">
         <v>9</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="32">
         <v>1</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="32" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="34">
+    <row r="25" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="32">
         <v>10</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="32">
         <v>1</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+    <row r="26" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="31" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+    <row r="28" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3857,352 +4639,352 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="34">
+    <row r="29" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="32">
         <v>1</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="32">
         <v>20</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="32">
         <v>258369741</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="32">
         <v>0</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="32">
         <v>1</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
+    <row r="30" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="32">
         <v>2</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="32">
         <v>20</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="32">
         <v>258369741</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="32">
         <v>0</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="32">
         <v>1</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
+    <row r="31" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="32">
         <v>3</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="32">
         <v>20</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="32">
         <v>258369741</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="32">
         <v>0</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="32">
         <v>2</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
+    <row r="32" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="32">
         <v>4</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="32">
         <v>30</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="32">
         <v>258369741</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="32">
         <v>0</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="32">
         <v>2</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
+    <row r="33" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="32">
         <v>5</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="32">
         <v>30</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="32">
         <v>258369741</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="32">
         <v>0</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="32">
         <v>3</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
+    <row r="34" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="32">
         <v>6</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="32">
         <v>40</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="32">
         <v>258369741</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="32">
         <v>0</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="32">
         <v>3</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
+    <row r="35" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="32">
         <v>7</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="32">
         <v>40</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="32">
         <v>258369741</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="32">
         <v>0</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="32">
         <v>4</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="32">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34">
+    <row r="36" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="32">
         <v>8</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="32">
         <v>50</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="32">
         <v>258369741</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="32">
         <v>0</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="32">
         <v>4</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="32">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
+    <row r="37" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="32">
         <v>9</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="32">
         <v>50</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="32">
         <v>258369741</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="32">
         <v>0</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="32">
         <v>4</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34">
+    <row r="38" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="32">
         <v>10</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="32">
         <v>20</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="32">
         <v>258369741</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="32">
         <v>0</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="32">
         <v>4</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="34">
+    <row r="39" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="32">
         <v>11</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="32">
         <v>30</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="32">
         <v>258369741</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="32">
         <v>0</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="32">
         <v>3</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="32">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="34">
+    <row r="40" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="32">
         <v>12</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="32">
         <v>20</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="32">
         <v>258369741</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="32">
         <v>0</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="32">
         <v>3</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="32">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34">
+    <row r="41" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="32">
         <v>13</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="32">
         <v>40</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="32">
         <v>258369741</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="32">
         <v>0</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="32">
         <v>1</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
+    <row r="42" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+    <row r="44" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -4217,251 +4999,251 @@
       <c r="F44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="18" t="s">
         <v>123</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="34">
+    <row r="45" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="32">
         <v>1</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="32">
         <v>123456789</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="34">
+    <row r="46" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="32">
         <v>2</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="32">
         <v>123456789</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="34">
+    <row r="47" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="32">
         <v>3</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="32">
         <v>123456789</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="34">
+    <row r="48" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="32">
         <v>4</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="32">
         <v>123456789</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="34">
+    <row r="49" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="32">
         <v>5</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="32">
         <v>123456789</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="34">
+    <row r="50" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="32">
         <v>6</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="32">
         <v>123456789</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="34">
+    <row r="51" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="32">
         <v>7</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="32">
         <v>123456789</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="34">
+    <row r="52" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="32">
         <v>8</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="32">
         <v>123456789</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H52" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="34">
+    <row r="53" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="32">
         <v>9</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="32">
         <v>123456789</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="34">
+    <row r="54" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="32">
         <v>10</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="32">
         <v>123456789</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="38" t="s">
+    <row r="55" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+    <row r="57" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -4486,281 +5268,281 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="34">
+    <row r="58" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="32">
         <v>1</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="32">
         <v>123456789</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H58" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I58" s="34">
+      <c r="I58" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="34">
+    <row r="59" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="32">
         <v>2</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="32">
         <v>123456789</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H59" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="34">
+    <row r="60" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="32">
         <v>3</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="32">
         <v>123456789</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I60" s="34">
+      <c r="I60" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="34">
+    <row r="61" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="32">
         <v>4</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="32">
         <v>123456789</v>
       </c>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="34">
+    <row r="62" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="32">
         <v>5</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="32">
         <v>123456789</v>
       </c>
-      <c r="G62" s="34" t="s">
+      <c r="G62" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H62" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I62" s="34">
+      <c r="I62" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="34">
+    <row r="63" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="32">
         <v>6</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="32">
         <v>123456789</v>
       </c>
-      <c r="G63" s="34" t="s">
+      <c r="G63" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I63" s="34">
+      <c r="I63" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="34">
+    <row r="64" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="32">
         <v>7</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="32">
         <v>123456789</v>
       </c>
-      <c r="G64" s="34" t="s">
+      <c r="G64" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H64" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I64" s="34">
+      <c r="I64" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="34">
+    <row r="65" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="32">
         <v>8</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="32">
         <v>123456789</v>
       </c>
-      <c r="G65" s="34" t="s">
+      <c r="G65" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="H65" s="36" t="s">
+      <c r="H65" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="34">
+    <row r="66" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="32">
         <v>9</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="32">
         <v>123456789</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="H66" s="36" t="s">
+      <c r="H66" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I66" s="34">
+      <c r="I66" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="34">
+    <row r="67" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="32">
         <v>10</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="32">
         <v>123456789</v>
       </c>
-      <c r="G67" s="34" t="s">
+      <c r="G67" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="H67" s="36" t="s">
+      <c r="H67" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I67" s="34">
+      <c r="I67" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="39" t="s">
+    <row r="68" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="30" t="s">
         <v>254</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -4770,68 +5552,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="45" t="s">
+    <row r="72" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-    </row>
-    <row r="74" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-    </row>
-    <row r="75" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="39" t="s">
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+    </row>
+    <row r="74" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+    </row>
+    <row r="75" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="15" t="s">
+    <row r="77" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="13" t="s">
         <v>257</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="45" t="s">
+    <row r="78" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="45"/>
-    </row>
-    <row r="80" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-    </row>
-    <row r="81" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="38" t="s">
+      <c r="D79" s="43"/>
+    </row>
+    <row r="80" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+    </row>
+    <row r="81" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="s">
+    <row r="84" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -4841,95 +5623,95 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="33" t="s">
+    <row r="85" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="31" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="46" t="s">
+    <row r="86" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-    </row>
-    <row r="87" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-    </row>
-    <row r="88" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-    </row>
-    <row r="89" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-    </row>
-    <row r="90" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="38" t="s">
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+    </row>
+    <row r="87" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+    </row>
+    <row r="88" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+    </row>
+    <row r="89" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+    </row>
+    <row r="90" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="15" t="s">
+    <row r="92" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="47" t="s">
+    <row r="93" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="47"/>
-    </row>
-    <row r="94" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-    </row>
-    <row r="95" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-    </row>
-    <row r="96" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="38" t="s">
+      <c r="C93" s="45"/>
+    </row>
+    <row r="94" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+    </row>
+    <row r="95" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+    </row>
+    <row r="96" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
+    <row r="98" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F98" s="38" t="s">
+      <c r="F98" s="36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="48" t="s">
+    <row r="99" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="F99" s="15" t="s">
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="F99" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="G99" s="13" t="s">
         <v>90</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -4939,537 +5721,537 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="48"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-    </row>
-    <row r="101" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="F101" s="37" t="s">
+    <row r="100" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+    </row>
+    <row r="101" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="F101" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="I101" s="33" t="s">
+      <c r="I101" s="31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="33">
+    <row r="102" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="31">
         <v>1</v>
       </c>
-      <c r="C102" s="33">
+      <c r="C102" s="31">
         <v>1</v>
       </c>
-      <c r="D102" s="33">
+      <c r="D102" s="31">
         <v>2</v>
       </c>
-      <c r="F102" s="37" t="s">
+      <c r="F102" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="H102" s="33" t="s">
+      <c r="H102" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="I102" s="40" t="s">
+      <c r="I102" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="33">
+    <row r="103" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="31">
         <v>1</v>
       </c>
-      <c r="C103" s="33">
+      <c r="C103" s="31">
         <v>3</v>
       </c>
-      <c r="D103" s="33">
+      <c r="D103" s="31">
         <v>4</v>
       </c>
-      <c r="F103" s="37" t="s">
+      <c r="F103" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H103" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="I103" s="40" t="s">
+      <c r="I103" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="33">
+    <row r="104" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="31">
         <v>2</v>
       </c>
-      <c r="C104" s="33">
+      <c r="C104" s="31">
         <v>4</v>
       </c>
-      <c r="D104" s="33">
+      <c r="D104" s="31">
         <v>2</v>
       </c>
-      <c r="F104" s="37" t="s">
+      <c r="F104" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="I104" s="40" t="s">
+      <c r="I104" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33">
+    <row r="105" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="31">
         <v>2</v>
       </c>
-      <c r="C105" s="33">
+      <c r="C105" s="31">
         <v>5</v>
       </c>
-      <c r="D105" s="33">
+      <c r="D105" s="31">
         <v>2</v>
       </c>
-      <c r="F105" s="37" t="s">
+      <c r="F105" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="H105" s="33" t="s">
+      <c r="H105" s="31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="33">
+    <row r="106" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="31">
         <v>3</v>
       </c>
-      <c r="C106" s="33">
+      <c r="C106" s="31">
         <v>6</v>
       </c>
-      <c r="D106" s="33">
+      <c r="D106" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="33">
+    <row r="107" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="31">
         <v>3</v>
       </c>
-      <c r="C107" s="33">
+      <c r="C107" s="31">
         <v>2</v>
       </c>
-      <c r="D107" s="33">
+      <c r="D107" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="33">
+    <row r="108" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="31">
         <v>4</v>
       </c>
-      <c r="C108" s="33">
+      <c r="C108" s="31">
         <v>8</v>
       </c>
-      <c r="D108" s="33">
+      <c r="D108" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="33">
+    <row r="109" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="31">
         <v>4</v>
       </c>
-      <c r="C109" s="33">
+      <c r="C109" s="31">
         <v>12</v>
       </c>
-      <c r="D109" s="33">
+      <c r="D109" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="33">
+    <row r="110" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="31">
         <v>5</v>
       </c>
-      <c r="C110" s="33">
+      <c r="C110" s="31">
         <v>88</v>
       </c>
-      <c r="D110" s="33">
+      <c r="D110" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="33">
+    <row r="111" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="31">
         <v>5</v>
       </c>
-      <c r="C111" s="33">
+      <c r="C111" s="31">
         <v>22</v>
       </c>
-      <c r="D111" s="33">
+      <c r="D111" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="33">
+    <row r="112" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="31">
         <v>5</v>
       </c>
-      <c r="C112" s="33">
+      <c r="C112" s="31">
         <v>11</v>
       </c>
-      <c r="D112" s="33">
+      <c r="D112" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="33">
+    <row r="113" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="31">
         <v>5</v>
       </c>
-      <c r="C113" s="33">
+      <c r="C113" s="31">
         <v>33</v>
       </c>
-      <c r="D113" s="33">
+      <c r="D113" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="33">
+    <row r="114" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="31">
         <v>6</v>
       </c>
-      <c r="C114" s="33">
+      <c r="C114" s="31">
         <v>2</v>
       </c>
-      <c r="D114" s="33">
+      <c r="D114" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="33">
+    <row r="115" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="31">
         <v>7</v>
       </c>
-      <c r="C115" s="33">
+      <c r="C115" s="31">
         <v>1</v>
       </c>
-      <c r="D115" s="33">
+      <c r="D115" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="33">
+    <row r="116" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="31">
         <v>8</v>
       </c>
-      <c r="C116" s="33">
+      <c r="C116" s="31">
         <v>27</v>
       </c>
-      <c r="D116" s="33">
+      <c r="D116" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="33">
+    <row r="117" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="31">
         <v>8</v>
       </c>
-      <c r="C117" s="33">
+      <c r="C117" s="31">
         <v>23</v>
       </c>
-      <c r="D117" s="33">
+      <c r="D117" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="33">
+    <row r="118" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="31">
         <v>8</v>
       </c>
-      <c r="C118" s="33">
+      <c r="C118" s="31">
         <v>98</v>
       </c>
-      <c r="D118" s="33">
+      <c r="D118" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="33">
+    <row r="119" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="31">
         <v>9</v>
       </c>
-      <c r="C119" s="33">
+      <c r="C119" s="31">
         <v>100</v>
       </c>
-      <c r="D119" s="33">
+      <c r="D119" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="33">
+    <row r="120" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="31">
         <v>9</v>
       </c>
-      <c r="C120" s="33">
+      <c r="C120" s="31">
         <v>11</v>
       </c>
-      <c r="D120" s="33">
+      <c r="D120" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="33">
+    <row r="121" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="31">
         <v>9</v>
       </c>
-      <c r="C121" s="33">
+      <c r="C121" s="31">
         <v>45</v>
       </c>
-      <c r="D121" s="33">
+      <c r="D121" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="33">
+    <row r="122" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="31">
         <v>9</v>
       </c>
-      <c r="C122" s="33">
+      <c r="C122" s="31">
         <v>22</v>
       </c>
-      <c r="D122" s="33">
+      <c r="D122" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="33">
+    <row r="123" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="31">
         <v>9</v>
       </c>
-      <c r="C123" s="33">
+      <c r="C123" s="31">
         <v>32</v>
       </c>
-      <c r="D123" s="33">
+      <c r="D123" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="33">
+    <row r="124" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="31">
         <v>10</v>
       </c>
-      <c r="C124" s="33">
+      <c r="C124" s="31">
         <v>18</v>
       </c>
-      <c r="D124" s="33">
+      <c r="D124" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="33">
+    <row r="125" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="31">
         <v>10</v>
       </c>
-      <c r="C125" s="33">
+      <c r="C125" s="31">
         <v>29</v>
       </c>
-      <c r="D125" s="33">
+      <c r="D125" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="33">
+    <row r="126" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="31">
         <v>11</v>
       </c>
-      <c r="C126" s="33">
+      <c r="C126" s="31">
         <v>33</v>
       </c>
-      <c r="D126" s="33">
+      <c r="D126" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="33">
+    <row r="127" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="31">
         <v>11</v>
       </c>
-      <c r="C127" s="33">
+      <c r="C127" s="31">
         <v>65</v>
       </c>
-      <c r="D127" s="33">
+      <c r="D127" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="33">
+    <row r="128" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="31">
         <v>11</v>
       </c>
-      <c r="C128" s="33">
+      <c r="C128" s="31">
         <v>1</v>
       </c>
-      <c r="D128" s="33">
+      <c r="D128" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="33">
+    <row r="129" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="31">
         <v>11</v>
       </c>
-      <c r="C129" s="33">
+      <c r="C129" s="31">
         <v>2</v>
       </c>
-      <c r="D129" s="33">
+      <c r="D129" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="33">
+    <row r="130" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="31">
         <v>11</v>
       </c>
-      <c r="C130" s="33">
+      <c r="C130" s="31">
         <v>5</v>
       </c>
-      <c r="D130" s="33">
+      <c r="D130" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="33">
+    <row r="131" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="31">
         <v>11</v>
       </c>
-      <c r="C131" s="33">
+      <c r="C131" s="31">
         <v>7</v>
       </c>
-      <c r="D131" s="33">
+      <c r="D131" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="33">
+    <row r="132" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="31">
         <v>12</v>
       </c>
-      <c r="C132" s="33">
+      <c r="C132" s="31">
         <v>55</v>
       </c>
-      <c r="D132" s="33">
+      <c r="D132" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="33">
+    <row r="133" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="31">
         <v>13</v>
       </c>
-      <c r="C133" s="33">
+      <c r="C133" s="31">
         <v>92</v>
       </c>
-      <c r="D133" s="33">
+      <c r="D133" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="33">
+    <row r="134" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="31">
         <v>13</v>
       </c>
-      <c r="C134" s="33">
+      <c r="C134" s="31">
         <v>14</v>
       </c>
-      <c r="D134" s="33">
+      <c r="D134" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C73:E74"/>
